--- a/Ecom_Operations_Tracking_System_Formula_Based.xlsx
+++ b/Ecom_Operations_Tracking_System_Formula_Based.xlsx
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45937.23209005229</v>
+        <v>45937.23515745207</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45937.23209005229</v>
+        <v>45937.23515745207</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45937.23209005229</v>
+        <v>45937.23515745207</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45937.23209005229</v>
+        <v>45937.23515745207</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45937.2320900644</v>
+        <v>45937.23515746477</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45937.2320900644</v>
+        <v>45937.23515746477</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45937.2320900644</v>
+        <v>45937.23515746477</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45937.2320900644</v>
+        <v>45937.23515746477</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45937.23208994648</v>
+        <v>45937.23515733849</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45937.23208994648</v>
+        <v>45937.23515733849</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45937.23208994648</v>
+        <v>45937.23515733849</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45937.23208994648</v>
+        <v>45937.23515733849</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45937.23208994648</v>
+        <v>45937.23515733849</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45937.23208994648</v>
+        <v>45937.23515733849</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45937.23208994648</v>
+        <v>45937.23515733849</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2125,13 +2125,13 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>45937.19042329207</v>
+        <v>45937.193490685</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>45937.23208995874</v>
+        <v>45937.23515735166</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>45937.22861773652</v>
+        <v>45937.23168512945</v>
       </c>
       <c r="E3" s="10">
         <f>(D3-B3)*24*60</f>
@@ -2161,13 +2161,13 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>45937.14875662541</v>
+        <v>45937.15182401834</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>45937.19042329207</v>
+        <v>45937.193490685</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>45937.18695106985</v>
+        <v>45937.19001846278</v>
       </c>
       <c r="E4" s="10">
         <f>(D4-B4)*24*60</f>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>45937.21125662541</v>
+        <v>45937.21432401834</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>45937.25292329207</v>
+        <v>45937.255990685</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>45937.22167329207</v>
+        <v>45937.224740685</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>45937.26333995874</v>
+        <v>45937.26640735166</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -2752,7 +2752,7 @@
         <v>500</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45937.12792332399</v>
+        <v>45937.13099071968</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -2795,10 +2795,10 @@
         <v>750</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45937.15708999066</v>
+        <v>45937.16015738634</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45937.23208999066</v>
+        <v>45937.23515738634</v>
       </c>
       <c r="I4" s="7">
         <f>(H4-G4)*24</f>
@@ -2841,7 +2841,7 @@
         <v>1000</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45937.09875665732</v>
+        <v>45937.10182405301</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
@@ -2884,10 +2884,10 @@
         <v>600</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45937.14458999066</v>
+        <v>45937.14765738634</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45937.23208999066</v>
+        <v>45937.23515738634</v>
       </c>
       <c r="I6" s="7">
         <f>(H6-G6)*24</f>
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45937.23209000367</v>
+        <v>45937.23515740021</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45937.23209000367</v>
+        <v>45937.23515740021</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45937.23209000367</v>
+        <v>45937.23515740021</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45937.23209000367</v>
+        <v>45937.23515740021</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3299,10 +3299,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45937.21264557135</v>
+        <v>45937.21571296886</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45937.2320900158</v>
+        <v>45937.2351574133</v>
       </c>
       <c r="F3" t="n">
         <v>45</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45937.20570112691</v>
+        <v>45937.20876852441</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45937.2320900158</v>
+        <v>45937.2351574133</v>
       </c>
       <c r="F4" t="n">
         <v>50</v>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45937.21820112691</v>
+        <v>45937.22126852441</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -3424,10 +3424,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45937.2070900158</v>
+        <v>45937.2101574133</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45937.2320900158</v>
+        <v>45937.2351574133</v>
       </c>
       <c r="F6" t="n">
         <v>55</v>
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45937.23209003957</v>
+        <v>45937.23515743858</v>
       </c>
       <c r="E3" t="n">
         <v>45</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45937.23209003957</v>
+        <v>45937.23515743858</v>
       </c>
       <c r="E4" t="n">
         <v>42</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45937.23209003957</v>
+        <v>45937.23515743858</v>
       </c>
       <c r="E5" t="n">
         <v>38</v>
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45937.23209003957</v>
+        <v>45937.23515743858</v>
       </c>
       <c r="E6" t="n">
         <v>48</v>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45937.23209003957</v>
+        <v>45937.23515743858</v>
       </c>
       <c r="E7" t="n">
         <v>35</v>

--- a/Ecom_Operations_Tracking_System_Formula_Based.xlsx
+++ b/Ecom_Operations_Tracking_System_Formula_Based.xlsx
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45937.23515745207</v>
+        <v>45937.23671582768</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45937.23515745207</v>
+        <v>45937.23671582768</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45937.23515745207</v>
+        <v>45937.23671582768</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45937.23515745207</v>
+        <v>45937.23671582768</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45937.23515746477</v>
+        <v>45937.23671583962</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45937.23515746477</v>
+        <v>45937.23671583962</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45937.23515746477</v>
+        <v>45937.23671583962</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45937.23515746477</v>
+        <v>45937.23671583962</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45937.23515733849</v>
+        <v>45937.23671571868</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45937.23515733849</v>
+        <v>45937.23671571868</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45937.23515733849</v>
+        <v>45937.23671571868</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45937.23515733849</v>
+        <v>45937.23671571868</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45937.23515733849</v>
+        <v>45937.23671571868</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45937.23515733849</v>
+        <v>45937.23671571868</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45937.23515733849</v>
+        <v>45937.23671571868</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2125,13 +2125,13 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>45937.193490685</v>
+        <v>45937.19504906513</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>45937.23515735166</v>
+        <v>45937.23671573179</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>45937.23168512945</v>
+        <v>45937.23324350957</v>
       </c>
       <c r="E3" s="10">
         <f>(D3-B3)*24*60</f>
@@ -2161,13 +2161,13 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>45937.15182401834</v>
+        <v>45937.15338239846</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>45937.193490685</v>
+        <v>45937.19504906513</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>45937.19001846278</v>
+        <v>45937.1915768429</v>
       </c>
       <c r="E4" s="10">
         <f>(D4-B4)*24*60</f>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>45937.21432401834</v>
+        <v>45937.21588239846</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>45937.255990685</v>
+        <v>45937.25754906513</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>45937.224740685</v>
+        <v>45937.22629906513</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>45937.26640735166</v>
+        <v>45937.26796573179</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -2752,7 +2752,7 @@
         <v>500</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45937.13099071968</v>
+        <v>45937.13254909907</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -2795,10 +2795,10 @@
         <v>750</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45937.16015738634</v>
+        <v>45937.16171576574</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45937.23515738634</v>
+        <v>45937.23671576574</v>
       </c>
       <c r="I4" s="7">
         <f>(H4-G4)*24</f>
@@ -2841,7 +2841,7 @@
         <v>1000</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45937.10182405301</v>
+        <v>45937.1033824324</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
@@ -2884,10 +2884,10 @@
         <v>600</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45937.14765738634</v>
+        <v>45937.14921576574</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45937.23515738634</v>
+        <v>45937.23671576574</v>
       </c>
       <c r="I6" s="7">
         <f>(H6-G6)*24</f>
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45937.23515740021</v>
+        <v>45937.23671577936</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45937.23515740021</v>
+        <v>45937.23671577936</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45937.23515740021</v>
+        <v>45937.23671577936</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45937.23515740021</v>
+        <v>45937.23671577936</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3299,10 +3299,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45937.21571296886</v>
+        <v>45937.21727134697</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45937.2351574133</v>
+        <v>45937.23671579141</v>
       </c>
       <c r="F3" t="n">
         <v>45</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45937.20876852441</v>
+        <v>45937.21032690252</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45937.2351574133</v>
+        <v>45937.23671579141</v>
       </c>
       <c r="F4" t="n">
         <v>50</v>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45937.22126852441</v>
+        <v>45937.22282690252</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -3424,10 +3424,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45937.2101574133</v>
+        <v>45937.21171579141</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45937.2351574133</v>
+        <v>45937.23671579141</v>
       </c>
       <c r="F6" t="n">
         <v>55</v>
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45937.23515743858</v>
+        <v>45937.23671581491</v>
       </c>
       <c r="E3" t="n">
         <v>45</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45937.23515743858</v>
+        <v>45937.23671581491</v>
       </c>
       <c r="E4" t="n">
         <v>42</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45937.23515743858</v>
+        <v>45937.23671581491</v>
       </c>
       <c r="E5" t="n">
         <v>38</v>
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45937.23515743858</v>
+        <v>45937.23671581491</v>
       </c>
       <c r="E6" t="n">
         <v>48</v>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45937.23515743858</v>
+        <v>45937.23671581491</v>
       </c>
       <c r="E7" t="n">
         <v>35</v>

--- a/Ecom_Operations_Tracking_System_Formula_Based.xlsx
+++ b/Ecom_Operations_Tracking_System_Formula_Based.xlsx
@@ -27,15 +27,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd hh:mm"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,8 +51,12 @@
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
     </font>
+    <font>
+      <i val="1"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -71,6 +73,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00366092"/>
         <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9E1F2"/>
+        <bgColor rgb="00D9E1F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -108,7 +116,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -830,7 +838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,10 +852,10 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
   </cols>
@@ -922,83 +930,72 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>INV-001</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45937.23671582768</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SKU-1001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Widget A</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>500</v>
-      </c>
-      <c r="F3" t="n">
-        <v>498</v>
-      </c>
-      <c r="G3">
-        <f>F3-E3</f>
-        <v/>
-      </c>
-      <c r="H3" s="4">
-        <f>(F3-E3)/E3</f>
-        <v/>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Picking error</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Inventory adjusted</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Manager A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Resolved</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>HOW TO USE:</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Date discovered</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Product SKU</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Product name</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>System count</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Physical count</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>AUTO-CALCULATED: =F3-E3</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>AUTO-CALCULATED: =(F3-E3)/E3</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>Root cause of discrepancy</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Resolution steps taken</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="inlineStr">
+        <is>
+          <t>Person who resolved</t>
+        </is>
+      </c>
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t>Status: Open or Resolved</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INV-002</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45937.23671582768</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SKU-1002</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Widget B</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>750</v>
-      </c>
-      <c r="F4" t="n">
-        <v>755</v>
+          <t>INV-001</t>
+        </is>
       </c>
       <c r="G4">
         <f>F4-E4</f>
@@ -1007,134 +1004,6 @@
       <c r="H4" s="4">
         <f>(F4-E4)/E4</f>
         <v/>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Receiving error</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>System updated</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Manager B</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Resolved</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>INV-003</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45937.23671582768</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SKU-1003</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Widget C</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>990</v>
-      </c>
-      <c r="G5">
-        <f>F5-E5</f>
-        <v/>
-      </c>
-      <c r="H5" s="4">
-        <f>(F5-E5)/E5</f>
-        <v/>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Unrecorded damage</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Under investigation</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Manager A</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>INV-004</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45937.23671582768</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SKU-1004</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Widget D</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>600</v>
-      </c>
-      <c r="F6" t="n">
-        <v>602</v>
-      </c>
-      <c r="G6">
-        <f>F6-E6</f>
-        <v/>
-      </c>
-      <c r="H6" s="4">
-        <f>(F6-E6)/E6</f>
-        <v/>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Data entry error</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Corrected</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Manager C</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Resolved</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,9 +1033,9 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
   </cols>
@@ -1231,202 +1100,54 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ERR-001</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45937.23671583962</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Warehouse Management</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Database Connection</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Connection timeout to inventory DB</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Delayed updates</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Restarted DB service</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>IT Team</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Resolved</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ERR-002</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45937.23671583962</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Picking System</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Scanner Malfunction</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Barcode scanner not reading</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Manual entry required</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Scanner replaced</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Tech Support</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Resolved</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ERR-003</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45937.23671583962</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Order Management</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>API Timeout</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Third-party API slow response</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Minor delays</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Monitoring</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>IT Team</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ERR-004</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45937.23671583962</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Shipping Integration</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Label Printer Error</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Printer offline</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Manual processing</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Printer reconnected</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Warehouse Staff</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Resolved</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>HOW TO USE:</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Error timestamp</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>System or module name</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Type of error</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Severity: Low, Medium, High, Critical</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Detailed error description</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Business impact</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>Resolution steps</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>Person/team who resolved</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Status: Open or Resolved</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1836,198 +1557,34 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Q-001</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45937.23671571868</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Show customer order status</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Order #12345: In Transit, ETA: 2 days</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>45</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Q-002</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45937.23671571868</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Check wave completion</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Wave W-789: 95% complete, 5 tasks remaining</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>32</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Q-003</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45937.23671571868</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Show employee training status</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>87% trained, 13 employees pending</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>28</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Q-004</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45937.23671571868</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Why is stock replenishment delayed?</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Average time: 2.5 hrs (target: 2 hrs). Delays due to supplier issues.</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>67</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Q-005</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45937.23671571868</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>What is SLA compliance?</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Current SLA compliance: 96% (target: &gt;95%)</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>23</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Q-006</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45937.23671571868</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Show quality audit rate</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Current rate: 5%, Recommendation: Increase to 10%</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>41</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Q-007</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45937.23671571868</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>How many orders today?</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Total orders today: 1,247</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>19</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Completed</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>HOW TO USE:</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Enter timestamp (right-click &gt; Insert &gt; Current Date &amp; Time)</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Enter customer query text</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Enter your response or system output</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Enter response time in milliseconds</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Enter status: Completed, Pending, or Failed</t>
         </is>
       </c>
     </row>
@@ -2045,7 +1602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,7 +1618,7 @@
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="35" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2119,136 +1676,65 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W-001</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="n">
-        <v>45937.19504906513</v>
-      </c>
-      <c r="C3" s="9" t="n">
-        <v>45937.23671573179</v>
-      </c>
-      <c r="D3" s="9" t="n">
-        <v>45937.23324350957</v>
-      </c>
-      <c r="E3" s="10">
-        <f>(D3-B3)*24*60</f>
-        <v/>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>On time</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>HOW TO USE:</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Enter start time (format: HH:MM:SS)</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Enter target completion (1 hour from start)</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Enter actual completion time</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>AUTO-CALCULATED: =(D3-B3)*24*60</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Enter total tasks</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Enter completed tasks</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>Status: Complete or In Progress</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>Optional notes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W-002</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="n">
-        <v>45937.15338239846</v>
-      </c>
-      <c r="C4" s="9" t="n">
-        <v>45937.19504906513</v>
-      </c>
-      <c r="D4" s="9" t="n">
-        <v>45937.1915768429</v>
+          <t>W-001</t>
+        </is>
       </c>
       <c r="E4" s="10">
         <f>(D4-B4)*24*60</f>
         <v/>
       </c>
-      <c r="F4" t="n">
-        <v>45</v>
-      </c>
-      <c r="G4" t="n">
-        <v>45</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Slightly delayed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W-003</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="n">
-        <v>45937.21588239846</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>45937.25754906513</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G5" t="n">
-        <v>38</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2 tasks remaining</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W-004</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n">
-        <v>45937.22629906513</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>45937.26796573179</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>35</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Early stage</t>
+          <t>← Copy this formula down when you add data</t>
         </is>
       </c>
     </row>
@@ -2266,7 +1752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2346,284 +1832,54 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EMP-001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>John Smith</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Picking</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Safety Procedures</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Trainer A</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EMP-002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jane Doe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Packing</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Quality Standards</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-01-16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024-01-16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Trainer B</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EMP-003</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bob Johnson</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>System Training</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024-01-17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Scheduled</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>EMP-004</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alice Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Picking</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Equipment Operation</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024-01-18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2024-01-18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>88%</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Trainer A</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Satisfactory</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EMP-005</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Charlie Davis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Quality</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Audit Procedures</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2024-01-19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Not started</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>EMP-006</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Diana Wilson</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Packing</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Safety Procedures</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Trainer C</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Outstanding</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>HOW TO USE:</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Enter employee name</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Department: Picking, Packing, Receiving, Quality, etc.</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Training module name</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Enter scheduled date (YYYY-MM-DD)</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Enter completion date (leave blank if pending)</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Status: Completed or Pending</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>Score percentage (e.g., 95%)</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>Name of certifier/trainer</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Optional notes</t>
         </is>
       </c>
     </row>
@@ -2641,7 +1897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2657,7 +1913,7 @@
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
@@ -2727,181 +1983,71 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>REP-001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SKU-1001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Widget A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>500</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45937.13254909907</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>High</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>HOW TO USE:</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Product SKU code</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Product name</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Reorder point threshold</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Current stock level</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Order quantity</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Request timestamp</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>Received timestamp</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>AUTO-CALCULATED: =(H3-G3)*24</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Status: In Progress or Complete</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="inlineStr">
+        <is>
+          <t>Priority: Low, Medium, High, Urgent</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>REP-002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SKU-1002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Widget B</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>750</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45937.16171576574</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>45937.23671576574</v>
+          <t>REP-001</t>
+        </is>
       </c>
       <c r="I4" s="7">
         <f>(H4-G4)*24</f>
         <v/>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>REP-003</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SKU-1003</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Widget C</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45937.1033824324</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Urgent</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>REP-004</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SKU-1004</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Widget D</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>15</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12</v>
-      </c>
-      <c r="F6" t="n">
-        <v>600</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45937.14921576574</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>45937.23671576574</v>
-      </c>
-      <c r="I6" s="7">
-        <f>(H6-G6)*24</f>
-        <v/>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -2918,7 +2064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2931,12 +2077,12 @@
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3004,183 +2150,75 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>QA-001</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45937.23671577936</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>QA Team A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4">
-        <f>E3/D3</f>
-        <v/>
-      </c>
-      <c r="G3" t="n">
-        <v>48</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4">
-        <f>G3/(G3+H3)</f>
-        <v/>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Minor labeling errors</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Re-labeled</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>HOW TO USE:</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Enter audit date</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Auditor name or team</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Total items processed</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Items audited (aim for 5%+)</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>AUTO-CALCULATED: =E3/D3</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Number of items passed</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>Number of items failed</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>AUTO-CALCULATED: =G3/(G3+H3)</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Description of issues</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="inlineStr">
+        <is>
+          <t>Corrective actions taken</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QA-002</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45937.23671577936</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>QA Team B</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>850</v>
-      </c>
-      <c r="E4" t="n">
-        <v>43</v>
+          <t>QA-001</t>
+        </is>
       </c>
       <c r="F4" s="4">
         <f>E4/D4</f>
         <v/>
       </c>
-      <c r="G4" t="n">
-        <v>41</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
       <c r="I4" s="4">
         <f>G4/(G4+H4)</f>
         <v/>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Packaging defects</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Repackaged</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>QA-003</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45937.23671577936</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>QA Team A</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E5" t="n">
-        <v>65</v>
-      </c>
-      <c r="F5" s="4">
-        <f>E5/D5</f>
-        <v/>
-      </c>
-      <c r="G5" t="n">
-        <v>63</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <f>G5/(G5+H5)</f>
-        <v/>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Quantity mismatch</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Corrected</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>QA-004</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45937.23671577936</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>QA Team C</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>950</v>
-      </c>
-      <c r="E6" t="n">
-        <v>48</v>
-      </c>
-      <c r="F6" s="4">
-        <f>E6/D6</f>
-        <v/>
-      </c>
-      <c r="G6" t="n">
-        <v>47</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <f>G6/(G6+H6)</f>
-        <v/>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Damaged item</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Replaced</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -3197,7 +2235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3212,8 +2250,8 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
@@ -3283,77 +2321,67 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PT-001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EMP-001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>John Smith</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45937.21727134697</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45937.23671579141</v>
-      </c>
-      <c r="F3" t="n">
-        <v>45</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30</v>
-      </c>
-      <c r="H3" s="10">
-        <f>(E3-D3)*24*60</f>
-        <v/>
-      </c>
-      <c r="I3" s="11">
-        <f>G3/H3</f>
-        <v/>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Complete</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>HOW TO USE:</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Employee name</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Task start timestamp</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Task end timestamp</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Number of items picked</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Target time in minutes</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>AUTO-CALCULATED: =(E3-D3)*24*60</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>AUTO-CALCULATED: =G3/H3</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Number of errors</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="inlineStr">
+        <is>
+          <t>Status: Complete or In Progress</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PT-002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>EMP-002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Jane Doe</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45937.21032690252</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45937.23671579141</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>35</v>
+          <t>PT-001</t>
+        </is>
       </c>
       <c r="H4" s="10">
         <f>(E4-D4)*24*60</f>
@@ -3362,94 +2390,6 @@
       <c r="I4" s="11">
         <f>G4/H4</f>
         <v/>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PT-003</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EMP-003</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bob Johnson</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45937.22282690252</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G5" t="n">
-        <v>28</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PT-004</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>EMP-004</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Alice Brown</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45937.21171579141</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45937.23671579141</v>
-      </c>
-      <c r="F6" t="n">
-        <v>55</v>
-      </c>
-      <c r="G6" t="n">
-        <v>38</v>
-      </c>
-      <c r="H6" s="10">
-        <f>(E6-D6)*24*60</f>
-        <v/>
-      </c>
-      <c r="I6" s="11">
-        <f>G6/H6</f>
-        <v/>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +2406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3481,7 +2421,7 @@
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
   </cols>
@@ -3546,198 +2486,61 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1247</v>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>178</v>
-      </c>
-      <c r="E3" t="n">
-        <v>892</v>
-      </c>
-      <c r="F3" t="n">
-        <v>120</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4">
-        <f>G3/B3</f>
-        <v/>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>$156.78</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>14:00</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>HOW TO USE:</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Enter total orders count</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Pending orders</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Processing orders</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Shipped orders</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Delivered orders</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Cancelled orders</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>AUTO-CALCULATED: =G3/B3</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>Average order value</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Peak hour (e.g., 14:00)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-01-19</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1189</v>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>165</v>
-      </c>
-      <c r="E4" t="n">
-        <v>856</v>
-      </c>
-      <c r="F4" t="n">
-        <v>115</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15</v>
-      </c>
       <c r="H4" s="4">
         <f>G4/B4</f>
         <v/>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>$148.92</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-01-18</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1312</v>
-      </c>
-      <c r="C5" t="n">
-        <v>52</v>
-      </c>
-      <c r="D5" t="n">
-        <v>189</v>
-      </c>
-      <c r="E5" t="n">
-        <v>934</v>
-      </c>
-      <c r="F5" t="n">
-        <v>125</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4">
-        <f>G5/B5</f>
-        <v/>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>$162.45</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-01-17</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1098</v>
-      </c>
-      <c r="C6" t="n">
-        <v>41</v>
-      </c>
-      <c r="D6" t="n">
-        <v>142</v>
-      </c>
-      <c r="E6" t="n">
-        <v>789</v>
-      </c>
-      <c r="F6" t="n">
-        <v>110</v>
-      </c>
-      <c r="G6" t="n">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4">
-        <f>G6/B6</f>
-        <v/>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>$151.33</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024-01-16</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1256</v>
-      </c>
-      <c r="C7" t="n">
-        <v>47</v>
-      </c>
-      <c r="D7" t="n">
-        <v>176</v>
-      </c>
-      <c r="E7" t="n">
-        <v>901</v>
-      </c>
-      <c r="F7" t="n">
-        <v>118</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4">
-        <f>G7/B7</f>
-        <v/>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>$159.67</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -3754,7 +2557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3770,9 +2573,9 @@
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3840,257 +2643,59 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EMP-001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>John Smith</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Picking</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45937.23671581491</v>
-      </c>
-      <c r="E3" t="n">
-        <v>45</v>
-      </c>
-      <c r="F3" t="n">
-        <v>28</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>98%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Top performer</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EMP-002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jane Doe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Packing</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45937.23671581491</v>
-      </c>
-      <c r="E4" t="n">
-        <v>42</v>
-      </c>
-      <c r="F4" t="n">
-        <v>32</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Speed improvement</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Consistent</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EMP-003</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bob Johnson</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45937.23671581491</v>
-      </c>
-      <c r="E5" t="n">
-        <v>38</v>
-      </c>
-      <c r="F5" t="n">
-        <v>35</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Satisfactory</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Training needed</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Needs support</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>EMP-004</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alice Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Picking</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45937.23671581491</v>
-      </c>
-      <c r="E6" t="n">
-        <v>48</v>
-      </c>
-      <c r="F6" t="n">
-        <v>27</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Outstanding</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EMP-005</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Charlie Davis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Quality</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>45937.23671581491</v>
-      </c>
-      <c r="E7" t="n">
-        <v>35</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Accuracy, Speed</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Requires coaching</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>HOW TO USE:</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Employee name</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Department name</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Performance review date</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Number of tasks completed</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Average time per task (minutes)</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Accuracy percentage</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>Training status: Complete or Pending</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>Rating: Excellent, Good, Satisfactory, Needs Improvement</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Areas for improvement</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="inlineStr">
+        <is>
+          <t>Additional notes</t>
         </is>
       </c>
     </row>
